--- a/GATEWAY/A1#111EDINEXTSRL/EDINEXT_SRL/AVR/v3.0.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111EDINEXTSRL/EDINEXT_SRL/AVR/v3.0.0/accreditamento-checklist_V8.1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\OneDrive\Desktop\fse2\AVR_3_tutto_AGOSTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\OneDrive\Desktop\fse2\avr_v3.0.0_tutto_agosto_29\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D732D1E-711E-4FC7-AF0F-F10E98294D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDAACB5-E532-452E-AAD6-562048B2E423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="1110" windowWidth="25290" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -981,148 +981,148 @@
     <t>La codifica della malattia con presunta immunità alla vaccinazione non è stata accettata: correggi i dati inseriti oppure segnala l'anomalia ad assistenza</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>AVR</t>
   </si>
   <si>
-    <t>01/08/2023T15:50:00Z</t>
-  </si>
-  <si>
-    <t>4d8ba428b0ad3884</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9297fd544d8533281540ae774d7868e36bd23d2c3a4dc9a5f79398ffc6f9129.eb3b97b304^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:05Z</t>
-  </si>
-  <si>
-    <t>c538a154764d637b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ce49caceea90ae8cc8ea85c129262e5610f9435dcbd9000767f6a55804e618f7.b21e4e58d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:08Z</t>
-  </si>
-  <si>
-    <t>d258bef8c2b0451f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.96ff38444cab91394dfe8dfb34c91f244159e993696cfdfc2ac9ab653e394655.cb53571587^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:12Z</t>
-  </si>
-  <si>
-    <t>18eb3d81fb14ad98</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.077e077d49a2c594a0e71893cdb5fa39a4cd7a0fd4eaee14546f67eaa456863e.e14eb2d6dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:03Z</t>
-  </si>
-  <si>
-    <t>9d3a25ea7aa47d01</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b80104a02c871295ef52732d9697298adf9ea6d4ef582e94ef794be93eb5e0b4.5ccddd06f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:06Z</t>
-  </si>
-  <si>
-    <t>89fd5f7f709306ef</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ff4e0012d3d28166372ed74fa5f43a035637a3793451e18ab52349cf71db52f2.3c0cdf2d8b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:10Z</t>
-  </si>
-  <si>
-    <t>b5f5635eeff6c766</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2eaae510cefb6247a972db7357637e644b27902971a777804137fde0054d1de6.0e881e4668^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:13Z</t>
-  </si>
-  <si>
-    <t>ba505264a6ca1150</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8bc91b66bfb7725e3f220831c132fa7670b6d2e3a3913a743cc8c51f65454d4d.a871f7781f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:22Z</t>
-  </si>
-  <si>
-    <t>c7db1452eb5a0ef6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.3de1ace1d8f93c21d2d68facaf014f7ab597fcc7efc82c734ae217b498b235ea.ecd0f6ed54^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:24Z</t>
-  </si>
-  <si>
-    <t>9f85ed04e7134451</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.580e11ccece5270b57af53ecb4a7998346ef20dad0a8ee68da7c9a2b2194bac5.21c933a630^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:25Z</t>
-  </si>
-  <si>
-    <t>9fadf5f2e057d4d1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.198164618d0417bcd2237794c55aa35a06d13e9d9e2c504fc2663c8051c9376e.8ed7eba5d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:15Z</t>
-  </si>
-  <si>
-    <t>6139a5240bd073d4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2521c5c71b928a554a5ec0eafbd77951f00d82d40c8681a164a0a2373a7ecc6b.83f29bf520^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:17Z</t>
-  </si>
-  <si>
-    <t>3b90b93bab6c3472</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1647904a1ac14efebe64daa29c9d760d7758c9a01de9455d3b6936e2cc5a516c.137d1187fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:19Z</t>
-  </si>
-  <si>
-    <t>4f3e3477dddc2a0c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a943f33013ace64d2e6bdc37023b59c05f8f6e748d6b32f0fd279d1cd981bbda.88c378026c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01/08/2023T15:50:20Z</t>
-  </si>
-  <si>
-    <t>1e35d7cf216d8e10</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d02d1b484bf4b933cd527027fb1cd2d11cd887e748a9b37873043a48829db8fd.bd88022584^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>EDINEXT_SRL</t>
+  </si>
+  <si>
+    <t>v3.0.0</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:27:41Z</t>
+  </si>
+  <si>
+    <t>8e05a56617db9b4b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9297fd544d8533281540ae774d7868e36bd23d2c3a4dc9a5f79398ffc6f9129.dbcb72a070^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:27:45Z</t>
+  </si>
+  <si>
+    <t>9a29cd283f070dbd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ce49caceea90ae8cc8ea85c129262e5610f9435dcbd9000767f6a55804e618f7.403a2ab89a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:27:48Z</t>
+  </si>
+  <si>
+    <t>e2ba7dd2d8399127</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.96ff38444cab91394dfe8dfb34c91f244159e993696cfdfc2ac9ab653e394655.c172914f60^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:27:52Z</t>
+  </si>
+  <si>
+    <t>a0a5224179413fb7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.077e077d49a2c594a0e71893cdb5fa39a4cd7a0fd4eaee14546f67eaa456863e.b36a217924^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:27:43Z</t>
+  </si>
+  <si>
+    <t>f1052f6e40a85b14</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b80104a02c871295ef52732d9697298adf9ea6d4ef582e94ef794be93eb5e0b4.b527f5a6cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:27:47Z</t>
+  </si>
+  <si>
+    <t>0c507c1002ba3a7b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ff4e0012d3d28166372ed74fa5f43a035637a3793451e18ab52349cf71db52f2.9e09c9cee6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:27:50Z</t>
+  </si>
+  <si>
+    <t>7a610217ec7f803d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2eaae510cefb6247a972db7357637e644b27902971a777804137fde0054d1de6.09ebacb659^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:27:54Z</t>
+  </si>
+  <si>
+    <t>05f240a14a33ef45</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8bc91b66bfb7725e3f220831c132fa7670b6d2e3a3913a743cc8c51f65454d4d.3c5273c7e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:29:56Z</t>
+  </si>
+  <si>
+    <t>ec896f95ea1776f0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.3de1ace1d8f93c21d2d68facaf014f7ab597fcc7efc82c734ae217b498b235ea.9784ecfb1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:29:58Z</t>
+  </si>
+  <si>
+    <t>14a695d69a2591ff</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.580e11ccece5270b57af53ecb4a7998346ef20dad0a8ee68da7c9a2b2194bac5.5bc21b4a99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:30:00Z</t>
+  </si>
+  <si>
+    <t>2eb26e908ed8cf5e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.198164618d0417bcd2237794c55aa35a06d13e9d9e2c504fc2663c8051c9376e.1266341959^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:29:49Z</t>
+  </si>
+  <si>
+    <t>72dd644a81dbb0cc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2521c5c71b928a554a5ec0eafbd77951f00d82d40c8681a164a0a2373a7ecc6b.ddee474a79^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:29:51Z</t>
+  </si>
+  <si>
+    <t>4bb26f30d3f3585f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1647904a1ac14efebe64daa29c9d760d7758c9a01de9455d3b6936e2cc5a516c.b080370721^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:29:53Z</t>
+  </si>
+  <si>
+    <t>b65ce41604bb970f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a943f33013ace64d2e6bdc37023b59c05f8f6e748d6b32f0fd279d1cd981bbda.dace4b021d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2023T13:29:55Z</t>
+  </si>
+  <si>
+    <t>9b42bb06b0e01e71</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d02d1b484bf4b933cd527027fb1cd2d11cd887e748a9b37873043a48829db8fd.c131faab40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4029,10 +4029,10 @@
   <dimension ref="A1:T669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D3" s="40"/>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="D4" s="40"/>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="D5" s="40"/>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -4309,16 +4309,16 @@
         <v>59</v>
       </c>
       <c r="F10" s="35">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>81</v>
@@ -4353,16 +4353,16 @@
         <v>61</v>
       </c>
       <c r="F11" s="35">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>81</v>
@@ -4397,16 +4397,16 @@
         <v>63</v>
       </c>
       <c r="F12" s="35">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>81</v>
@@ -4441,16 +4441,16 @@
         <v>65</v>
       </c>
       <c r="F13" s="35">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>81</v>
@@ -4485,16 +4485,16 @@
         <v>67</v>
       </c>
       <c r="F14" s="35">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>81</v>
@@ -4529,16 +4529,16 @@
         <v>69</v>
       </c>
       <c r="F15" s="35">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>81</v>
@@ -4573,16 +4573,16 @@
         <v>71</v>
       </c>
       <c r="F16" s="35">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>81</v>
@@ -4617,16 +4617,16 @@
         <v>73</v>
       </c>
       <c r="F17" s="35">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>81</v>
@@ -5023,16 +5023,16 @@
         <v>91</v>
       </c>
       <c r="F27" s="35">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>81</v>
@@ -5267,16 +5267,16 @@
         <v>103</v>
       </c>
       <c r="F33" s="23">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J33" s="25" t="s">
         <v>81</v>
@@ -5321,16 +5321,16 @@
         <v>105</v>
       </c>
       <c r="F34" s="23">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>81</v>
@@ -5565,16 +5565,16 @@
         <v>117</v>
       </c>
       <c r="F40" s="23">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J40" s="25" t="s">
         <v>81</v>
@@ -5847,16 +5847,16 @@
         <v>131</v>
       </c>
       <c r="F47" s="23">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>81</v>
@@ -5901,16 +5901,16 @@
         <v>133</v>
       </c>
       <c r="F48" s="23">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J48" s="25" t="s">
         <v>81</v>
@@ -6031,16 +6031,16 @@
         <v>139</v>
       </c>
       <c r="F51" s="23">
-        <v>45139</v>
+        <v>45167</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J51" s="25" t="s">
         <v>81</v>

--- a/GATEWAY/A1#111EDINEXTSRL/EDINEXT_SRL/AVR/v3.0.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111EDINEXTSRL/EDINEXT_SRL/AVR/v3.0.0/accreditamento-checklist_V8.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\OneDrive\Desktop\fse2\avr_v3.0.0_tutto_agosto_29\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDAACB5-E532-452E-AAD6-562048B2E423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E8FB8-414F-4A5F-9814-E049E5DAF0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1110" windowWidth="25290" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="271">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -226,15 +226,6 @@
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
-  </si>
-  <si>
-    <t>subject_application_id:</t>
-  </si>
-  <si>
-    <t>subject_application_vendor:</t>
-  </si>
-  <si>
-    <t>subject_application_version:</t>
   </si>
   <si>
     <t>ID</t>
@@ -981,15 +972,6 @@
     <t>La codifica della malattia con presunta immunità alla vaccinazione non è stata accettata: correggi i dati inseriti oppure segnala l'anomalia ad assistenza</t>
   </si>
   <si>
-    <t>AVR</t>
-  </si>
-  <si>
-    <t>EDINEXT_SRL</t>
-  </si>
-  <si>
-    <t>v3.0.0</t>
-  </si>
-  <si>
     <t>29/08/2023T13:27:41Z</t>
   </si>
   <si>
@@ -1123,6 +1105,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.d02d1b484bf4b933cd527027fb1cd2d11cd887e748a9b37873043a48829db8fd.c131faab40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>subject_application_id:EDINEXT_SRL</t>
+  </si>
+  <si>
+    <t>subject_application_vendor:AVR</t>
+  </si>
+  <si>
+    <t>subject_application_version:v3.0.0</t>
   </si>
 </sst>
 </file>
@@ -4032,7 +4023,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:E5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4099,12 +4090,9 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="48" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="D3" s="40"/>
-      <c r="E3" t="s">
-        <v>227</v>
-      </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4125,12 +4113,9 @@
       <c r="A4" s="44"/>
       <c r="B4" s="45"/>
       <c r="C4" s="48" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="D4" s="40"/>
-      <c r="E4" t="s">
-        <v>226</v>
-      </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -4151,12 +4136,9 @@
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="48" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="D5" s="40"/>
-      <c r="E5" t="s">
-        <v>228</v>
-      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4232,64 +4214,64 @@
     </row>
     <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="I9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="J9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="K9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="L9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="M9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="N9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="O9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="P9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="Q9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="R9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="S9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="T9" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="29.25" customHeight="1" thickBot="1">
@@ -4297,31 +4279,31 @@
         <v>16</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="35">
         <v>45167</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -4333,7 +4315,7 @@
       <c r="R10" s="26"/>
       <c r="S10" s="27"/>
       <c r="T10" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
@@ -4341,31 +4323,31 @@
         <v>17</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="E11" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="35">
         <v>45167</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
@@ -4377,7 +4359,7 @@
       <c r="R11" s="26"/>
       <c r="S11" s="27"/>
       <c r="T11" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1" thickBot="1">
@@ -4385,31 +4367,31 @@
         <v>18</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="35">
         <v>45167</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -4421,7 +4403,7 @@
       <c r="R12" s="26"/>
       <c r="S12" s="27"/>
       <c r="T12" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
@@ -4429,31 +4411,31 @@
         <v>19</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="35">
         <v>45167</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
@@ -4465,7 +4447,7 @@
       <c r="R13" s="26"/>
       <c r="S13" s="27"/>
       <c r="T13" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="28.5" customHeight="1" thickBot="1">
@@ -4473,31 +4455,31 @@
         <v>20</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="35">
         <v>45167</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
@@ -4509,7 +4491,7 @@
       <c r="R14" s="26"/>
       <c r="S14" s="27"/>
       <c r="T14" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="21" customHeight="1" thickBot="1">
@@ -4517,31 +4499,31 @@
         <v>21</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="35">
         <v>45167</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
@@ -4553,7 +4535,7 @@
       <c r="R15" s="26"/>
       <c r="S15" s="27"/>
       <c r="T15" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="24.75" customHeight="1" thickBot="1">
@@ -4561,31 +4543,31 @@
         <v>22</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F16" s="35">
         <v>45167</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
@@ -4597,7 +4579,7 @@
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
       <c r="T16" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
@@ -4605,31 +4587,31 @@
         <v>23</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" s="35">
         <v>45167</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4641,7 +4623,7 @@
       <c r="R17" s="26"/>
       <c r="S17" s="27"/>
       <c r="T17" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
@@ -4649,26 +4631,26 @@
         <v>33</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -4679,7 +4661,7 @@
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
       <c r="T18" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="29.25" customHeight="1" thickBot="1">
@@ -4687,26 +4669,26 @@
         <v>34</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -4717,7 +4699,7 @@
       <c r="R19" s="26"/>
       <c r="S19" s="27"/>
       <c r="T19" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="10.5" customHeight="1" thickBot="1">
@@ -4725,26 +4707,26 @@
         <v>41</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -4755,7 +4737,7 @@
       <c r="R20" s="26"/>
       <c r="S20" s="27"/>
       <c r="T20" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="24" customHeight="1" thickBot="1">
@@ -4763,26 +4745,26 @@
         <v>42</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -4793,7 +4775,7 @@
       <c r="R21" s="26"/>
       <c r="S21" s="27"/>
       <c r="T21" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="12.75" customHeight="1" thickBot="1">
@@ -4801,47 +4783,47 @@
         <v>49</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O22" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S22" s="27"/>
       <c r="T22" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" thickBot="1">
@@ -4849,47 +4831,47 @@
         <v>50</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S23" s="27"/>
       <c r="T23" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15" customHeight="1" thickBot="1">
@@ -4897,26 +4879,26 @@
         <v>94</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="25" t="s">
         <v>192</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>195</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -4927,7 +4909,7 @@
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
       <c r="T24" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="10.5" customHeight="1" thickBot="1">
@@ -4935,26 +4917,26 @@
         <v>95</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -4965,7 +4947,7 @@
       <c r="R25" s="26"/>
       <c r="S25" s="27"/>
       <c r="T25" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
@@ -4973,26 +4955,26 @@
         <v>96</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="25" t="s">
         <v>192</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>195</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -5003,7 +4985,7 @@
       <c r="R26" s="26"/>
       <c r="S26" s="27"/>
       <c r="T26" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="21" customHeight="1" thickBot="1">
@@ -5011,53 +4993,53 @@
         <v>97</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F27" s="35">
         <v>45167</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K27" s="25"/>
       <c r="L27" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N27" s="34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O27" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="25"/>
       <c r="R27" s="26"/>
       <c r="S27" s="27"/>
       <c r="T27" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="21" customHeight="1" thickBot="1">
@@ -5065,26 +5047,26 @@
         <v>98</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -5095,7 +5077,7 @@
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
       <c r="T28" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="28.5" customHeight="1" thickBot="1">
@@ -5103,26 +5085,26 @@
         <v>99</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
@@ -5133,7 +5115,7 @@
       <c r="R29" s="26"/>
       <c r="S29" s="27"/>
       <c r="T29" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
@@ -5141,26 +5123,26 @@
         <v>100</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
@@ -5171,7 +5153,7 @@
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
       <c r="T30" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="24.75" customHeight="1" thickBot="1">
@@ -5179,26 +5161,26 @@
         <v>101</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -5209,7 +5191,7 @@
       <c r="R31" s="26"/>
       <c r="S31" s="27"/>
       <c r="T31" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="27.75" customHeight="1" thickBot="1">
@@ -5217,26 +5199,26 @@
         <v>102</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -5247,7 +5229,7 @@
       <c r="R32" s="26"/>
       <c r="S32" s="27"/>
       <c r="T32" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="26.25" customHeight="1" thickBot="1">
@@ -5255,53 +5237,53 @@
         <v>103</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F33" s="23">
         <v>45167</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K33" s="25"/>
       <c r="L33" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N33" s="34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O33" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q33" s="25"/>
       <c r="R33" s="26"/>
       <c r="S33" s="27"/>
       <c r="T33" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="25.5" customHeight="1" thickBot="1">
@@ -5309,53 +5291,53 @@
         <v>104</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F34" s="23">
         <v>45167</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K34" s="25"/>
       <c r="L34" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O34" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="25"/>
       <c r="R34" s="26"/>
       <c r="S34" s="27"/>
       <c r="T34" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
@@ -5363,26 +5345,26 @@
         <v>105</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
       <c r="J35" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -5393,7 +5375,7 @@
       <c r="R35" s="26"/>
       <c r="S35" s="27"/>
       <c r="T35" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
@@ -5401,26 +5383,26 @@
         <v>106</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
       <c r="J36" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -5431,7 +5413,7 @@
       <c r="R36" s="26"/>
       <c r="S36" s="27"/>
       <c r="T36" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1">
@@ -5439,26 +5421,26 @@
         <v>107</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
       <c r="J37" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
@@ -5469,7 +5451,7 @@
       <c r="R37" s="26"/>
       <c r="S37" s="27"/>
       <c r="T37" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
@@ -5477,26 +5459,26 @@
         <v>108</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
@@ -5507,7 +5489,7 @@
       <c r="R38" s="26"/>
       <c r="S38" s="27"/>
       <c r="T38" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="25.5" customHeight="1" thickBot="1">
@@ -5515,26 +5497,26 @@
         <v>109</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -5545,7 +5527,7 @@
       <c r="R39" s="26"/>
       <c r="S39" s="27"/>
       <c r="T39" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="21" customHeight="1" thickBot="1">
@@ -5553,53 +5535,53 @@
         <v>110</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F40" s="23">
         <v>45167</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K40" s="25"/>
       <c r="L40" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M40" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O40" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P40" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="26"/>
       <c r="S40" s="27"/>
       <c r="T40" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="21" customHeight="1" thickBot="1">
@@ -5607,26 +5589,26 @@
         <v>111</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
@@ -5637,7 +5619,7 @@
       <c r="R41" s="26"/>
       <c r="S41" s="27"/>
       <c r="T41" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="22.5" customHeight="1" thickBot="1">
@@ -5645,26 +5627,26 @@
         <v>112</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
@@ -5675,7 +5657,7 @@
       <c r="R42" s="26"/>
       <c r="S42" s="27"/>
       <c r="T42" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="23.25" customHeight="1" thickBot="1">
@@ -5683,26 +5665,26 @@
         <v>113</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
@@ -5713,7 +5695,7 @@
       <c r="R43" s="26"/>
       <c r="S43" s="27"/>
       <c r="T43" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="21.75" customHeight="1" thickBot="1">
@@ -5721,26 +5703,26 @@
         <v>114</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
@@ -5751,7 +5733,7 @@
       <c r="R44" s="26"/>
       <c r="S44" s="27"/>
       <c r="T44" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="21.75" customHeight="1" thickBot="1">
@@ -5759,26 +5741,26 @@
         <v>115</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
@@ -5789,7 +5771,7 @@
       <c r="R45" s="26"/>
       <c r="S45" s="27"/>
       <c r="T45" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
@@ -5797,26 +5779,26 @@
         <v>116</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
@@ -5827,7 +5809,7 @@
       <c r="R46" s="26"/>
       <c r="S46" s="27"/>
       <c r="T46" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="18.75" customHeight="1" thickBot="1">
@@ -5835,53 +5817,53 @@
         <v>117</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F47" s="23">
         <v>45167</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M47" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
       <c r="S47" s="27"/>
       <c r="T47" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="21.75" customHeight="1" thickBot="1">
@@ -5889,53 +5871,53 @@
         <v>118</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F48" s="23">
         <v>45167</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M48" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P48" s="34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q48" s="25"/>
       <c r="R48" s="26"/>
       <c r="S48" s="27"/>
       <c r="T48" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
@@ -5943,26 +5925,26 @@
         <v>119</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
@@ -5973,7 +5955,7 @@
       <c r="R49" s="26"/>
       <c r="S49" s="27"/>
       <c r="T49" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="18.75" customHeight="1" thickBot="1">
@@ -5981,26 +5963,26 @@
         <v>120</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K50" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
@@ -6011,7 +5993,7 @@
       <c r="R50" s="26"/>
       <c r="S50" s="27"/>
       <c r="T50" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="22.5" customHeight="1">
@@ -6019,53 +6001,53 @@
         <v>121</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F51" s="23">
         <v>45167</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M51" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N51" s="34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P51" s="34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q51" s="25"/>
       <c r="R51" s="26"/>
       <c r="S51" s="27"/>
       <c r="T51" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.25" customHeight="1">
@@ -15725,486 +15707,486 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>145</v>
-      </c>
       <c r="D3" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C10" s="30">
         <v>191</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C11" s="30">
         <v>192</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C12" s="30">
         <v>208</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="30">
         <v>224</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" s="30">
         <v>240</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C15" s="30">
         <v>256</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="30">
         <v>272</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="30">
         <v>288</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C18" s="30">
         <v>304</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C19" s="30">
         <v>193</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C20" s="30">
         <v>209</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C21" s="30">
         <v>225</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C22" s="30">
         <v>241</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C23" s="30">
         <v>257</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C24" s="30">
         <v>273</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C25" s="30">
         <v>289</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="30">
         <v>305</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C27" s="30">
         <v>194</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C28" s="30">
         <v>210</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C29" s="30">
         <v>226</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C30" s="30">
         <v>242</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C31" s="30">
         <v>258</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C32" s="30">
         <v>274</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C33" s="30">
         <v>290</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C34" s="30">
         <v>306</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C35" s="30">
         <v>195</v>
@@ -16215,10 +16197,10 @@
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C36" s="30">
         <v>211</v>
@@ -16229,10 +16211,10 @@
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C37" s="30">
         <v>227</v>
@@ -16243,10 +16225,10 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C38" s="30">
         <v>243</v>
@@ -16257,10 +16239,10 @@
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C39" s="30">
         <v>259</v>
@@ -16271,10 +16253,10 @@
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C40" s="30">
         <v>275</v>
@@ -16285,10 +16267,10 @@
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C41" s="30">
         <v>291</v>
@@ -16299,10 +16281,10 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C42" s="30">
         <v>307</v>
@@ -16313,10 +16295,10 @@
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C43" s="30">
         <v>196</v>
@@ -16327,10 +16309,10 @@
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C44" s="30">
         <v>212</v>
@@ -16341,10 +16323,10 @@
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C45" s="30">
         <v>228</v>
@@ -16355,10 +16337,10 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C46" s="30">
         <v>244</v>
@@ -16369,10 +16351,10 @@
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C47" s="30">
         <v>260</v>
@@ -16383,10 +16365,10 @@
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C48" s="30">
         <v>276</v>
@@ -16397,10 +16379,10 @@
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C49" s="30">
         <v>292</v>
@@ -16411,10 +16393,10 @@
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C50" s="30">
         <v>308</v>
@@ -17391,26 +17373,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">
